--- a/SPEKTRAL_ANALİZ/EXCELLER/mentes_xtrack_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/mentes_xtrack_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>38.15185164870896</v>
       </c>
       <c r="D2" t="n">
-        <v>38.14589379709642</v>
+        <v>38.14169963891214</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>38.12399760438726</v>
       </c>
       <c r="D3" t="n">
-        <v>38.11697484728678</v>
+        <v>38.11995844837638</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>38.20375648661157</v>
       </c>
       <c r="D4" t="n">
-        <v>38.1077314004333</v>
+        <v>38.11358459758113</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>38.11642916381714</v>
       </c>
       <c r="D5" t="n">
-        <v>38.1162578428094</v>
+        <v>38.12168974473869</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>38.17499162265256</v>
       </c>
       <c r="D6" t="n">
-        <v>38.13274204321092</v>
+        <v>38.13711681773555</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>38.19060523033299</v>
       </c>
       <c r="D7" t="n">
-        <v>38.14970378738042</v>
+        <v>38.15341705684249</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>38.13251258234003</v>
       </c>
       <c r="D8" t="n">
-        <v>38.16714418538545</v>
+        <v>38.16896704919319</v>
       </c>
     </row>
     <row r="9">
@@ -563,7 +563,7 @@
         <v>38.20415032891027</v>
       </c>
       <c r="D9" t="n">
-        <v>38.18808118239387</v>
+        <v>38.18473350445099</v>
       </c>
     </row>
     <row r="10">
@@ -573,12 +573,8 @@
       <c r="B10" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="C10" t="n">
-        <v>38.30932676462115</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38.21013162091111</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -591,7 +587,7 @@
         <v>38.29474636164323</v>
       </c>
       <c r="D11" t="n">
-        <v>38.22300471589748</v>
+        <v>38.20522445463721</v>
       </c>
     </row>
     <row r="12">
@@ -601,12 +597,8 @@
       <c r="B12" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="C12" t="n">
-        <v>38.30281002321624</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.21572365409211</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -619,7 +611,7 @@
         <v>38.25091352617655</v>
       </c>
       <c r="D13" t="n">
-        <v>38.18717610405379</v>
+        <v>38.17383388764702</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +625,7 @@
         <v>38.06217492321262</v>
       </c>
       <c r="D14" t="n">
-        <v>38.14955735448121</v>
+        <v>38.14501399287337</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +639,7 @@
         <v>38.02905293871665</v>
       </c>
       <c r="D15" t="n">
-        <v>38.12063840467157</v>
+        <v>38.1232728023376</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +653,7 @@
         <v>38.04087757925197</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11139495781809</v>
+        <v>38.11689895154235</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +667,7 @@
         <v>38.10969756267411</v>
       </c>
       <c r="D17" t="n">
-        <v>38.11992140019419</v>
+        <v>38.12500409869991</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +681,7 @@
         <v>38.12178821551722</v>
       </c>
       <c r="D18" t="n">
-        <v>38.13640560059572</v>
+        <v>38.14043117169678</v>
       </c>
     </row>
     <row r="19">
@@ -703,7 +695,7 @@
         <v>38.18307711046155</v>
       </c>
       <c r="D19" t="n">
-        <v>38.15336734476521</v>
+        <v>38.15673141080371</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +709,7 @@
         <v>38.22038625811493</v>
       </c>
       <c r="D20" t="n">
-        <v>38.17080774277024</v>
+        <v>38.17228140315441</v>
       </c>
     </row>
     <row r="21">
@@ -731,7 +723,7 @@
         <v>38.23176103638329</v>
       </c>
       <c r="D21" t="n">
-        <v>38.19174473977866</v>
+        <v>38.1880478584122</v>
       </c>
     </row>
     <row r="22">
@@ -745,7 +737,7 @@
         <v>38.23277412219186</v>
       </c>
       <c r="D22" t="n">
-        <v>38.2137951782959</v>
+        <v>38.2022692686793</v>
       </c>
     </row>
     <row r="23">
@@ -759,7 +751,7 @@
         <v>38.26293048050803</v>
       </c>
       <c r="D23" t="n">
-        <v>38.22666827328227</v>
+        <v>38.20853880859843</v>
       </c>
     </row>
     <row r="24">
@@ -773,7 +765,7 @@
         <v>38.22232525193112</v>
       </c>
       <c r="D24" t="n">
-        <v>38.2193872114769</v>
+        <v>38.20019125553328</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +779,7 @@
         <v>38.2956352471987</v>
       </c>
       <c r="D25" t="n">
-        <v>38.19083966143858</v>
+        <v>38.17714824160824</v>
       </c>
     </row>
     <row r="26">
@@ -801,7 +793,7 @@
         <v>38.16247307230113</v>
       </c>
       <c r="D26" t="n">
-        <v>38.153220911866</v>
+        <v>38.14832834683459</v>
       </c>
     </row>
     <row r="27">
@@ -815,7 +807,7 @@
         <v>38.17443562201018</v>
       </c>
       <c r="D27" t="n">
-        <v>38.12430196205636</v>
+        <v>38.12658715629883</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +821,7 @@
         <v>38.10084207501476</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11505851520288</v>
+        <v>38.12021330550358</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +835,7 @@
         <v>38.10752554523248</v>
       </c>
       <c r="D29" t="n">
-        <v>38.12358495757898</v>
+        <v>38.12831845266113</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +849,7 @@
         <v>38.152898205629</v>
       </c>
       <c r="D30" t="n">
-        <v>38.14006915798051</v>
+        <v>38.143745525658</v>
       </c>
     </row>
     <row r="31">
@@ -871,7 +863,7 @@
         <v>38.13683038129008</v>
       </c>
       <c r="D31" t="n">
-        <v>38.15703090215</v>
+        <v>38.16004576476493</v>
       </c>
     </row>
     <row r="32">
@@ -885,7 +877,7 @@
         <v>38.22103670685937</v>
       </c>
       <c r="D32" t="n">
-        <v>38.17447130015503</v>
+        <v>38.17559575711564</v>
       </c>
     </row>
     <row r="33">
@@ -899,7 +891,7 @@
         <v>38.18762934672803</v>
       </c>
       <c r="D33" t="n">
-        <v>38.19540829716345</v>
+        <v>38.19136221237343</v>
       </c>
     </row>
     <row r="34">
@@ -913,7 +905,7 @@
         <v>38.19960626374016</v>
       </c>
       <c r="D34" t="n">
-        <v>38.21745873568069</v>
+        <v>38.20558362264052</v>
       </c>
     </row>
     <row r="35">
@@ -927,7 +919,7 @@
         <v>38.27197998854148</v>
       </c>
       <c r="D35" t="n">
-        <v>38.23033183066706</v>
+        <v>38.21185316255966</v>
       </c>
     </row>
     <row r="36">
@@ -941,7 +933,7 @@
         <v>38.21608457873418</v>
       </c>
       <c r="D36" t="n">
-        <v>38.22305076886169</v>
+        <v>38.2035056094945</v>
       </c>
     </row>
     <row r="37">
@@ -955,7 +947,7 @@
         <v>38.11190973473317</v>
       </c>
       <c r="D37" t="n">
-        <v>38.19450321882337</v>
+        <v>38.18046259556946</v>
       </c>
     </row>
     <row r="38">
@@ -969,7 +961,7 @@
         <v>38.09884350221538</v>
       </c>
       <c r="D38" t="n">
-        <v>38.15688446925079</v>
+        <v>38.15164270079581</v>
       </c>
     </row>
     <row r="39">
@@ -983,7 +975,7 @@
         <v>38.14137926510563</v>
       </c>
       <c r="D39" t="n">
-        <v>38.12796551944115</v>
+        <v>38.12990151026005</v>
       </c>
     </row>
     <row r="40">
@@ -997,7 +989,7 @@
         <v>38.1114732850301</v>
       </c>
       <c r="D40" t="n">
-        <v>38.11872207258767</v>
+        <v>38.1235276594648</v>
       </c>
     </row>
     <row r="41">
@@ -1011,7 +1003,7 @@
         <v>38.15494372511797</v>
       </c>
       <c r="D41" t="n">
-        <v>38.12724851496377</v>
+        <v>38.13163280662235</v>
       </c>
     </row>
     <row r="42">
@@ -1025,7 +1017,7 @@
         <v>38.14068130580348</v>
       </c>
       <c r="D42" t="n">
-        <v>38.1437327153653</v>
+        <v>38.14705987961922</v>
       </c>
     </row>
     <row r="43">
@@ -1039,7 +1031,7 @@
         <v>38.22548115829213</v>
       </c>
       <c r="D43" t="n">
-        <v>38.16069445953479</v>
+        <v>38.16336011872615</v>
       </c>
     </row>
     <row r="44">
@@ -1053,7 +1045,7 @@
         <v>38.21494455681571</v>
       </c>
       <c r="D44" t="n">
-        <v>38.17813485753982</v>
+        <v>38.17891011107686</v>
       </c>
     </row>
     <row r="45">
@@ -1067,7 +1059,7 @@
         <v>38.24030502809305</v>
       </c>
       <c r="D45" t="n">
-        <v>38.19907185454824</v>
+        <v>38.19467656633465</v>
       </c>
     </row>
     <row r="46">
@@ -1081,7 +1073,7 @@
         <v>38.1882427862321</v>
       </c>
       <c r="D46" t="n">
-        <v>38.22112229306548</v>
+        <v>38.20889797660174</v>
       </c>
     </row>
     <row r="47">
@@ -1095,7 +1087,7 @@
         <v>38.20994765729422</v>
       </c>
       <c r="D47" t="n">
-        <v>38.23399538805185</v>
+        <v>38.21516751652088</v>
       </c>
     </row>
     <row r="48">
@@ -1109,7 +1101,7 @@
         <v>38.18732625678262</v>
       </c>
       <c r="D48" t="n">
-        <v>38.22671432624648</v>
+        <v>38.20681996345572</v>
       </c>
     </row>
     <row r="49">
@@ -1123,7 +1115,7 @@
         <v>38.14368422967647</v>
       </c>
       <c r="D49" t="n">
-        <v>38.19816677620816</v>
+        <v>38.18377694953068</v>
       </c>
     </row>
     <row r="50">
@@ -1137,7 +1129,7 @@
         <v>38.15003175245032</v>
       </c>
       <c r="D50" t="n">
-        <v>38.16054802663558</v>
+        <v>38.15495705475703</v>
       </c>
     </row>
     <row r="51">
@@ -1151,7 +1143,7 @@
         <v>38.24561579844763</v>
       </c>
       <c r="D51" t="n">
-        <v>38.13162907682594</v>
+        <v>38.13321586422127</v>
       </c>
     </row>
     <row r="52">
@@ -1165,7 +1157,7 @@
         <v>38.15850808950408</v>
       </c>
       <c r="D52" t="n">
-        <v>38.12238562997246</v>
+        <v>38.12684201342602</v>
       </c>
     </row>
     <row r="53">
@@ -1179,7 +1171,7 @@
         <v>38.04778950753426</v>
       </c>
       <c r="D53" t="n">
-        <v>38.13091207234856</v>
+        <v>38.13494716058357</v>
       </c>
     </row>
     <row r="54">
@@ -1193,7 +1185,7 @@
         <v>38.08629491732193</v>
       </c>
       <c r="D54" t="n">
-        <v>38.14739627275009</v>
+        <v>38.15037423358044</v>
       </c>
     </row>
     <row r="55">
@@ -1207,7 +1199,7 @@
         <v>38.07361856585974</v>
       </c>
       <c r="D55" t="n">
-        <v>38.16435801691958</v>
+        <v>38.16667447268738</v>
       </c>
     </row>
     <row r="56">
@@ -1221,7 +1213,7 @@
         <v>38.23621810966171</v>
       </c>
       <c r="D56" t="n">
-        <v>38.18179841492461</v>
+        <v>38.18222446503808</v>
       </c>
     </row>
     <row r="57">
@@ -1235,7 +1227,7 @@
         <v>38.17378993886062</v>
       </c>
       <c r="D57" t="n">
-        <v>38.20273541193303</v>
+        <v>38.19799092029587</v>
       </c>
     </row>
     <row r="58">
@@ -1249,7 +1241,7 @@
         <v>38.21564550332657</v>
       </c>
       <c r="D58" t="n">
-        <v>38.22478585045027</v>
+        <v>38.21221233056296</v>
       </c>
     </row>
     <row r="59">
@@ -1263,7 +1255,7 @@
         <v>38.22679506315357</v>
       </c>
       <c r="D59" t="n">
-        <v>38.23765894543664</v>
+        <v>38.2184818704821</v>
       </c>
     </row>
     <row r="60">
@@ -1277,7 +1269,7 @@
         <v>38.03208440929971</v>
       </c>
       <c r="D60" t="n">
-        <v>38.23037788363127</v>
+        <v>38.21013431741694</v>
       </c>
     </row>
     <row r="61">
@@ -1291,7 +1283,7 @@
         <v>38.05291445017038</v>
       </c>
       <c r="D61" t="n">
-        <v>38.20183033359295</v>
+        <v>38.1870913034919</v>
       </c>
     </row>
     <row r="62">
@@ -1305,7 +1297,7 @@
         <v>38.20848792594879</v>
       </c>
       <c r="D62" t="n">
-        <v>38.16421158402037</v>
+        <v>38.15827140871825</v>
       </c>
     </row>
     <row r="63">
@@ -1319,7 +1311,7 @@
         <v>38.11483287362045</v>
       </c>
       <c r="D63" t="n">
-        <v>38.13529263421073</v>
+        <v>38.13653021818249</v>
       </c>
     </row>
     <row r="64">
@@ -1343,7 +1335,7 @@
         <v>38.06988936076048</v>
       </c>
       <c r="D65" t="n">
-        <v>38.13457562973336</v>
+        <v>38.13826151454479</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1349,7 @@
         <v>38.16373388389329</v>
       </c>
       <c r="D66" t="n">
-        <v>38.15105983013488</v>
+        <v>38.15368858754166</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1363,7 @@
         <v>38.1851110885418</v>
       </c>
       <c r="D67" t="n">
-        <v>38.16802157430437</v>
+        <v>38.1699888266486</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1377,7 @@
         <v>38.13083272206448</v>
       </c>
       <c r="D68" t="n">
-        <v>38.1854619723094</v>
+        <v>38.18553881899931</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1391,7 @@
         <v>38.15503481015667</v>
       </c>
       <c r="D69" t="n">
-        <v>38.20639896931782</v>
+        <v>38.20130527425709</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1405,7 @@
         <v>38.19219788060847</v>
       </c>
       <c r="D70" t="n">
-        <v>38.22844940783506</v>
+        <v>38.21552668452419</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1419,7 @@
         <v>38.21466385212798</v>
       </c>
       <c r="D71" t="n">
-        <v>38.24132250282143</v>
+        <v>38.22179622444332</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1433,7 @@
         <v>38.16567560900186</v>
       </c>
       <c r="D72" t="n">
-        <v>38.23404144101606</v>
+        <v>38.21344867137817</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1447,7 @@
         <v>38.16482929950797</v>
       </c>
       <c r="D73" t="n">
-        <v>38.20549389097774</v>
+        <v>38.19040565745313</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1461,7 @@
         <v>38.04348168949431</v>
       </c>
       <c r="D74" t="n">
-        <v>38.16787514140516</v>
+        <v>38.16158576267947</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1475,7 @@
         <v>38.13690260307659</v>
       </c>
       <c r="D75" t="n">
-        <v>38.13895619159552</v>
+        <v>38.13984457214371</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1489,7 @@
         <v>38.20527143563471</v>
       </c>
       <c r="D76" t="n">
-        <v>38.12971274474204</v>
+        <v>38.13347072134846</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1503,7 @@
         <v>38.04264579251608</v>
       </c>
       <c r="D77" t="n">
-        <v>38.13823918711815</v>
+        <v>38.14157586850602</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1517,7 @@
         <v>38.04493148829392</v>
       </c>
       <c r="D78" t="n">
-        <v>38.15472338751967</v>
+        <v>38.15700294150288</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1531,7 @@
         <v>38.15488109440191</v>
       </c>
       <c r="D79" t="n">
-        <v>38.17168513168916</v>
+        <v>38.17330318060981</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1545,7 @@
         <v>38.04668292579164</v>
       </c>
       <c r="D80" t="n">
-        <v>38.18912552969419</v>
+        <v>38.18885317296053</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1559,7 @@
         <v>38.1539568203011</v>
       </c>
       <c r="D81" t="n">
-        <v>38.21006252670261</v>
+        <v>38.20461962821832</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1573,7 @@
         <v>38.14999327664479</v>
       </c>
       <c r="D82" t="n">
-        <v>38.23211296521985</v>
+        <v>38.21884103848541</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1587,7 @@
         <v>38.18199717185193</v>
       </c>
       <c r="D83" t="n">
-        <v>38.24498606020622</v>
+        <v>38.22511057840454</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1601,7 @@
         <v>38.24462588586805</v>
       </c>
       <c r="D84" t="n">
-        <v>38.23770499840085</v>
+        <v>38.21676302533939</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1615,7 @@
         <v>38.18397877104614</v>
       </c>
       <c r="D85" t="n">
-        <v>38.20915744836253</v>
+        <v>38.19372001141435</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1629,7 @@
         <v>38.27944223329208</v>
       </c>
       <c r="D86" t="n">
-        <v>38.17153869878995</v>
+        <v>38.16490011664069</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1643,7 @@
         <v>38.14114431349258</v>
       </c>
       <c r="D87" t="n">
-        <v>38.14261974898031</v>
+        <v>38.14315892610493</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1657,7 @@
         <v>38.10896498535146</v>
       </c>
       <c r="D88" t="n">
-        <v>38.13337630212683</v>
+        <v>38.13678507530968</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1671,7 @@
         <v>38.06718984817661</v>
       </c>
       <c r="D89" t="n">
-        <v>38.14190274450294</v>
+        <v>38.14489022246724</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1685,7 @@
         <v>38.21103490517793</v>
       </c>
       <c r="D90" t="n">
-        <v>38.15838694490446</v>
+        <v>38.1603172954641</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1699,7 @@
         <v>38.17728482740218</v>
       </c>
       <c r="D91" t="n">
-        <v>38.17534868907395</v>
+        <v>38.17661753457104</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1713,7 @@
         <v>38.17515638181516</v>
       </c>
       <c r="D92" t="n">
-        <v>38.19278908707899</v>
+        <v>38.19216752692174</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1727,7 @@
         <v>38.19335869262921</v>
       </c>
       <c r="D93" t="n">
-        <v>38.2137260840874</v>
+        <v>38.20793398217954</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1741,7 @@
         <v>38.24033778452316</v>
       </c>
       <c r="D94" t="n">
-        <v>38.23577652260464</v>
+        <v>38.22215539244663</v>
       </c>
     </row>
     <row r="95">
@@ -1759,12 +1751,8 @@
       <c r="B95" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="C95" t="n">
-        <v>38.37398628370812</v>
-      </c>
-      <c r="D95" t="n">
-        <v>38.24864961759101</v>
-      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1777,7 +1765,7 @@
         <v>38.29939989429058</v>
       </c>
       <c r="D96" t="n">
-        <v>38.24136855578564</v>
+        <v>38.22007737930061</v>
       </c>
     </row>
     <row r="97">
@@ -1787,12 +1775,8 @@
       <c r="B97" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="C97" t="n">
-        <v>38.38447506009945</v>
-      </c>
-      <c r="D97" t="n">
-        <v>38.21282100574732</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1805,7 +1789,7 @@
         <v>38.25382848308996</v>
       </c>
       <c r="D98" t="n">
-        <v>38.17520225617474</v>
+        <v>38.16821447060192</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1803,7 @@
         <v>38.29868623573358</v>
       </c>
       <c r="D99" t="n">
-        <v>38.1462833063651</v>
+        <v>38.14647328006615</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1817,7 @@
         <v>38.10706386933696</v>
       </c>
       <c r="D100" t="n">
-        <v>38.13703985951162</v>
+        <v>38.1400994292709</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1831,7 @@
         <v>38.16571551846154</v>
       </c>
       <c r="D101" t="n">
-        <v>38.14556630188773</v>
+        <v>38.14820457642846</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1845,7 @@
         <v>38.21484790113148</v>
       </c>
       <c r="D102" t="n">
-        <v>38.16205050228925</v>
+        <v>38.16363164942533</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1859,7 @@
         <v>38.14070136184464</v>
       </c>
       <c r="D103" t="n">
-        <v>38.17901224645873</v>
+        <v>38.17993188853226</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1873,7 @@
         <v>38.19967637322127</v>
       </c>
       <c r="D104" t="n">
-        <v>38.19645264446378</v>
+        <v>38.19548188088297</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1887,7 @@
         <v>38.28986328148151</v>
       </c>
       <c r="D105" t="n">
-        <v>38.2173896414722</v>
+        <v>38.21124833614076</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1901,7 @@
         <v>38.24958467303988</v>
       </c>
       <c r="D106" t="n">
-        <v>38.23944007998943</v>
+        <v>38.22546974640785</v>
       </c>
     </row>
     <row r="107">
@@ -1927,12 +1911,8 @@
       <c r="B107" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="C107" t="n">
-        <v>38.32435187189197</v>
-      </c>
-      <c r="D107" t="n">
-        <v>38.2523131749758</v>
-      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -1941,12 +1921,8 @@
       <c r="B108" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="C108" t="n">
-        <v>38.38222061066905</v>
-      </c>
-      <c r="D108" t="n">
-        <v>38.24503211317043</v>
-      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1959,7 +1935,7 @@
         <v>38.25254265762237</v>
       </c>
       <c r="D109" t="n">
-        <v>38.21648456313211</v>
+        <v>38.20034871933679</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1949,7 @@
         <v>38.21635803848397</v>
       </c>
       <c r="D110" t="n">
-        <v>38.17886581355953</v>
+        <v>38.17152882456314</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1963,7 @@
         <v>38.14991695974432</v>
       </c>
       <c r="D111" t="n">
-        <v>38.14994686374989</v>
+        <v>38.14978763402738</v>
       </c>
     </row>
     <row r="112">
@@ -1997,12 +1973,8 @@
       <c r="B112" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="C112" t="n">
-        <v>38.00327629112819</v>
-      </c>
-      <c r="D112" t="n">
-        <v>38.14070341689641</v>
-      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2015,7 +1987,7 @@
         <v>38.16019743846067</v>
       </c>
       <c r="D113" t="n">
-        <v>38.14922985927252</v>
+        <v>38.15151893038968</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2001,7 @@
         <v>38.22179898545082</v>
       </c>
       <c r="D114" t="n">
-        <v>38.16571405967404</v>
+        <v>38.16694600338655</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2015,7 @@
         <v>38.20444439941278</v>
       </c>
       <c r="D115" t="n">
-        <v>38.18267580384352</v>
+        <v>38.18324624249348</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2029,7 @@
         <v>38.19994810273277</v>
       </c>
       <c r="D116" t="n">
-        <v>38.20011620184857</v>
+        <v>38.19879623484419</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2043,7 @@
         <v>38.24525904224942</v>
       </c>
       <c r="D117" t="n">
-        <v>38.22105319885699</v>
+        <v>38.21456269010198</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2057,7 @@
         <v>38.23813542762429</v>
       </c>
       <c r="D118" t="n">
-        <v>38.24310363737422</v>
+        <v>38.22878410036907</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2071,7 @@
         <v>38.13219114113224</v>
       </c>
       <c r="D119" t="n">
-        <v>38.25597673236059</v>
+        <v>38.23505364028821</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2085,7 @@
         <v>38.19896568880484</v>
       </c>
       <c r="D120" t="n">
-        <v>38.24869567055521</v>
+        <v>38.22670608722305</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2099,7 @@
         <v>38.19360166777395</v>
       </c>
       <c r="D121" t="n">
-        <v>38.2201481205169</v>
+        <v>38.20366307329802</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2113,7 @@
         <v>38.05923323458018</v>
       </c>
       <c r="D122" t="n">
-        <v>38.18252937094432</v>
+        <v>38.17484317852436</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2127,7 @@
         <v>38.09628108604066</v>
       </c>
       <c r="D123" t="n">
-        <v>38.15361042113468</v>
+        <v>38.1531019879886</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2141,7 @@
         <v>38.21079886649294</v>
       </c>
       <c r="D124" t="n">
-        <v>38.1443669742812</v>
+        <v>38.14672813719335</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2155,7 @@
         <v>38.15973932906362</v>
       </c>
       <c r="D125" t="n">
-        <v>38.15289341665731</v>
+        <v>38.1548332843509</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2169,7 @@
         <v>38.11243628439881</v>
       </c>
       <c r="D126" t="n">
-        <v>38.16937761705883</v>
+        <v>38.17026035734777</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2183,7 @@
         <v>38.13747847463618</v>
       </c>
       <c r="D127" t="n">
-        <v>38.18633936122831</v>
+        <v>38.1865605964547</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2197,7 @@
         <v>38.21194605887774</v>
       </c>
       <c r="D128" t="n">
-        <v>38.20377975923336</v>
+        <v>38.20211058880541</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2211,7 @@
         <v>38.14762406545078</v>
       </c>
       <c r="D129" t="n">
-        <v>38.22471675624177</v>
+        <v>38.2178770440632</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2225,7 @@
         <v>38.27783717700816</v>
       </c>
       <c r="D130" t="n">
-        <v>38.24676719475901</v>
+        <v>38.23209845433029</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2239,7 @@
         <v>38.19866192725213</v>
       </c>
       <c r="D131" t="n">
-        <v>38.25964028974538</v>
+        <v>38.23836799424943</v>
       </c>
     </row>
     <row r="132">
@@ -2277,12 +2249,8 @@
       <c r="B132" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="C132" t="n">
-        <v>38.34234863178496</v>
-      </c>
-      <c r="D132" t="n">
-        <v>38.25235922794</v>
-      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2295,7 +2263,7 @@
         <v>38.27244070046729</v>
       </c>
       <c r="D133" t="n">
-        <v>38.22381167790169</v>
+        <v>38.20697742725923</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2277,7 @@
         <v>38.25460353324579</v>
       </c>
       <c r="D134" t="n">
-        <v>38.18619292832911</v>
+        <v>38.17815753248558</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2291,7 @@
         <v>38.20891605787303</v>
       </c>
       <c r="D135" t="n">
-        <v>38.15727397851947</v>
+        <v>38.15641634194982</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2305,7 @@
         <v>38.21405794559786</v>
       </c>
       <c r="D136" t="n">
-        <v>38.14803053166599</v>
+        <v>38.15004249115457</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2319,7 @@
         <v>38.21774175573297</v>
       </c>
       <c r="D137" t="n">
-        <v>38.1565569740421</v>
+        <v>38.15814763831212</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2333,7 @@
         <v>38.24607003926356</v>
       </c>
       <c r="D138" t="n">
-        <v>38.17304117444362</v>
+        <v>38.17357471130899</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2347,7 @@
         <v>38.15800987324739</v>
       </c>
       <c r="D139" t="n">
-        <v>38.1900029186131</v>
+        <v>38.18987495041593</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2361,7 @@
         <v>38.22958327346966</v>
       </c>
       <c r="D140" t="n">
-        <v>38.20744331661815</v>
+        <v>38.20542494276663</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2375,7 @@
         <v>38.22902622056607</v>
       </c>
       <c r="D141" t="n">
-        <v>38.22838031362656</v>
+        <v>38.22119139802442</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2389,7 @@
         <v>38.19935569664219</v>
       </c>
       <c r="D142" t="n">
-        <v>38.2504307521438</v>
+        <v>38.23541280829151</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2403,7 @@
         <v>38.28542556671832</v>
       </c>
       <c r="D143" t="n">
-        <v>38.26330384713017</v>
+        <v>38.24168234821065</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2417,7 @@
         <v>38.17436715645341</v>
       </c>
       <c r="D144" t="n">
-        <v>38.2560227853248</v>
+        <v>38.2333347951455</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2431,7 @@
         <v>38.19676064439802</v>
       </c>
       <c r="D145" t="n">
-        <v>38.22747523528648</v>
+        <v>38.21029178122046</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2445,7 @@
         <v>38.22712891533538</v>
       </c>
       <c r="D146" t="n">
-        <v>38.1898564857139</v>
+        <v>38.1814718864468</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2459,7 @@
         <v>38.16149828815961</v>
       </c>
       <c r="D147" t="n">
-        <v>38.16093753590426</v>
+        <v>38.15973069591104</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2473,7 @@
         <v>38.205358879768</v>
       </c>
       <c r="D148" t="n">
-        <v>38.15169408905078</v>
+        <v>38.15335684511579</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2487,7 @@
         <v>38.19920190756873</v>
       </c>
       <c r="D149" t="n">
-        <v>38.16022053142689</v>
+        <v>38.16146199227335</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2501,7 @@
         <v>38.16794921772428</v>
       </c>
       <c r="D150" t="n">
-        <v>38.17670473182841</v>
+        <v>38.17688906527021</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2515,7 @@
         <v>38.23198988841421</v>
       </c>
       <c r="D151" t="n">
-        <v>38.19366647599789</v>
+        <v>38.19318930437715</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2529,7 @@
         <v>38.25786372997019</v>
       </c>
       <c r="D152" t="n">
-        <v>38.21110687400294</v>
+        <v>38.20873929672786</v>
       </c>
     </row>
     <row r="153">
@@ -2571,12 +2539,8 @@
       <c r="B153" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="C153" t="n">
-        <v>38.31500196990078</v>
-      </c>
-      <c r="D153" t="n">
-        <v>38.23204387101135</v>
-      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -2589,7 +2553,7 @@
         <v>38.23160429989308</v>
       </c>
       <c r="D154" t="n">
-        <v>38.25409430952859</v>
+        <v>38.23872716225274</v>
       </c>
     </row>
     <row r="155">
@@ -2599,12 +2563,8 @@
       <c r="B155" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="C155" t="n">
-        <v>38.30559054410313</v>
-      </c>
-      <c r="D155" t="n">
-        <v>38.26696740451496</v>
-      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -2617,7 +2577,7 @@
         <v>38.27635285304493</v>
       </c>
       <c r="D156" t="n">
-        <v>38.25968634270959</v>
+        <v>38.23664914910672</v>
       </c>
     </row>
     <row r="157">
@@ -2631,7 +2591,7 @@
         <v>38.20770223680138</v>
       </c>
       <c r="D157" t="n">
-        <v>38.23113879267127</v>
+        <v>38.21360613518168</v>
       </c>
     </row>
     <row r="158">
@@ -2645,7 +2605,7 @@
         <v>38.14732549266646</v>
       </c>
       <c r="D158" t="n">
-        <v>38.19352004309869</v>
+        <v>38.18478624040802</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2619,7 @@
         <v>38.17623997224866</v>
       </c>
       <c r="D159" t="n">
-        <v>38.16460109328905</v>
+        <v>38.16304504987226</v>
       </c>
     </row>
     <row r="160">
@@ -2673,7 +2633,7 @@
         <v>38.07463836392147</v>
       </c>
       <c r="D160" t="n">
-        <v>38.15535764643557</v>
+        <v>38.15667119907701</v>
       </c>
     </row>
     <row r="161">
@@ -2687,7 +2647,7 @@
         <v>38.13104064134222</v>
       </c>
       <c r="D161" t="n">
-        <v>38.16388408881168</v>
+        <v>38.16477634623457</v>
       </c>
     </row>
     <row r="162">
@@ -2701,7 +2661,7 @@
         <v>38.10187200243276</v>
       </c>
       <c r="D162" t="n">
-        <v>38.1803682892132</v>
+        <v>38.18020341923143</v>
       </c>
     </row>
     <row r="163">
@@ -2715,7 +2675,7 @@
         <v>38.22688483377934</v>
       </c>
       <c r="D163" t="n">
-        <v>38.19733003338268</v>
+        <v>38.19650365833836</v>
       </c>
     </row>
     <row r="164">
@@ -2729,7 +2689,7 @@
         <v>38.25479566329995</v>
       </c>
       <c r="D164" t="n">
-        <v>38.21477043138773</v>
+        <v>38.21205365068908</v>
       </c>
     </row>
     <row r="165">
@@ -2743,7 +2703,7 @@
         <v>38.15973678259235</v>
       </c>
       <c r="D165" t="n">
-        <v>38.23570742839614</v>
+        <v>38.22782010594687</v>
       </c>
     </row>
     <row r="166">
@@ -2753,12 +2713,8 @@
       <c r="B166" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="C166" t="n">
-        <v>38.37198455583383</v>
-      </c>
-      <c r="D166" t="n">
-        <v>38.25775786691338</v>
-      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -2767,12 +2723,8 @@
       <c r="B167" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="C167" t="n">
-        <v>38.32178409991194</v>
-      </c>
-      <c r="D167" t="n">
-        <v>38.27063096189975</v>
-      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -2785,7 +2737,7 @@
         <v>38.29717200029975</v>
       </c>
       <c r="D168" t="n">
-        <v>38.26334990009438</v>
+        <v>38.23996350306794</v>
       </c>
     </row>
     <row r="169">
@@ -2799,7 +2751,7 @@
         <v>38.25622629797466</v>
       </c>
       <c r="D169" t="n">
-        <v>38.23480235005606</v>
+        <v>38.2169204891429</v>
       </c>
     </row>
     <row r="170">
@@ -2813,7 +2765,7 @@
         <v>38.24757470106923</v>
       </c>
       <c r="D170" t="n">
-        <v>38.19718360048348</v>
+        <v>38.18810059436925</v>
       </c>
     </row>
     <row r="171">
@@ -2827,7 +2779,7 @@
         <v>38.21571501919173</v>
       </c>
       <c r="D171" t="n">
-        <v>38.16826465067384</v>
+        <v>38.16635940383348</v>
       </c>
     </row>
     <row r="172">
@@ -2841,7 +2793,7 @@
         <v>38.16489385239398</v>
       </c>
       <c r="D172" t="n">
-        <v>38.15902120382036</v>
+        <v>38.15998555303823</v>
       </c>
     </row>
     <row r="173">
@@ -2855,7 +2807,7 @@
         <v>38.19486652743096</v>
       </c>
       <c r="D173" t="n">
-        <v>38.16754764619646</v>
+        <v>38.16809070019579</v>
       </c>
     </row>
     <row r="174">
@@ -2869,7 +2821,7 @@
         <v>38.22340631349126</v>
       </c>
       <c r="D174" t="n">
-        <v>38.18403184659799</v>
+        <v>38.18351777319265</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2835,7 @@
         <v>38.22060686037398</v>
       </c>
       <c r="D175" t="n">
-        <v>38.20099359076747</v>
+        <v>38.19981801229959</v>
       </c>
     </row>
     <row r="176">
@@ -2897,7 +2849,7 @@
         <v>38.21412326840719</v>
       </c>
       <c r="D176" t="n">
-        <v>38.21843398877252</v>
+        <v>38.21536800465029</v>
       </c>
     </row>
     <row r="177">
@@ -2911,7 +2863,7 @@
         <v>38.21960992946506</v>
       </c>
       <c r="D177" t="n">
-        <v>38.23937098578093</v>
+        <v>38.23113445990809</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2877,7 @@
         <v>38.25268137912196</v>
       </c>
       <c r="D178" t="n">
-        <v>38.26142142429817</v>
+        <v>38.24535587017518</v>
       </c>
     </row>
     <row r="179">
@@ -2939,7 +2891,7 @@
         <v>38.25985316745232</v>
       </c>
       <c r="D179" t="n">
-        <v>38.27429451928454</v>
+        <v>38.25162541009431</v>
       </c>
     </row>
     <row r="180">
@@ -2953,7 +2905,7 @@
         <v>38.10074737934264</v>
       </c>
       <c r="D180" t="n">
-        <v>38.26701345747917</v>
+        <v>38.24327785702916</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2919,7 @@
         <v>38.13473118992459</v>
       </c>
       <c r="D181" t="n">
-        <v>38.23846590744085</v>
+        <v>38.22023484310412</v>
       </c>
     </row>
     <row r="182">
@@ -2981,7 +2933,7 @@
         <v>38.16780350467477</v>
       </c>
       <c r="D182" t="n">
-        <v>38.20084715786827</v>
+        <v>38.19141494833047</v>
       </c>
     </row>
     <row r="183">
@@ -2995,7 +2947,7 @@
         <v>38.05974229707807</v>
       </c>
       <c r="D183" t="n">
-        <v>38.17192820805863</v>
+        <v>38.1696737577947</v>
       </c>
     </row>
     <row r="184">
@@ -3009,7 +2961,7 @@
         <v>38.09956020599793</v>
       </c>
       <c r="D184" t="n">
-        <v>38.16268476120515</v>
+        <v>38.16329990699946</v>
       </c>
     </row>
     <row r="185">
@@ -3023,7 +2975,7 @@
         <v>38.23116666516301</v>
       </c>
       <c r="D185" t="n">
-        <v>38.17121120358125</v>
+        <v>38.17140505415701</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +2989,7 @@
         <v>38.1475975486254</v>
       </c>
       <c r="D186" t="n">
-        <v>38.18769540398278</v>
+        <v>38.18683212715388</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3003,7 @@
         <v>38.17652472105398</v>
       </c>
       <c r="D187" t="n">
-        <v>38.20465714815226</v>
+        <v>38.2031323662608</v>
       </c>
     </row>
     <row r="188">
@@ -3065,7 +3017,7 @@
         <v>38.1881788971677</v>
       </c>
       <c r="D188" t="n">
-        <v>38.22209754615731</v>
+        <v>38.21868235861152</v>
       </c>
     </row>
     <row r="189">
@@ -3079,7 +3031,7 @@
         <v>38.26812252824941</v>
       </c>
       <c r="D189" t="n">
-        <v>38.24303454316572</v>
+        <v>38.23444881386931</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3045,7 @@
         <v>38.27623178834175</v>
       </c>
       <c r="D190" t="n">
-        <v>38.26508498168296</v>
+        <v>38.2486702241364</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3059,7 @@
         <v>38.26008391501283</v>
       </c>
       <c r="D191" t="n">
-        <v>38.27795807666933</v>
+        <v>38.25493976405554</v>
       </c>
     </row>
     <row r="192">
@@ -3121,7 +3073,7 @@
         <v>38.26853052628118</v>
       </c>
       <c r="D192" t="n">
-        <v>38.27067701486396</v>
+        <v>38.24659221099038</v>
       </c>
     </row>
     <row r="193">
@@ -3135,7 +3087,7 @@
         <v>38.27989318997138</v>
       </c>
       <c r="D193" t="n">
-        <v>38.24212946482564</v>
+        <v>38.22354919706535</v>
       </c>
     </row>
     <row r="194">
@@ -3149,7 +3101,7 @@
         <v>38.12130671920666</v>
       </c>
       <c r="D194" t="n">
-        <v>38.20451071525306</v>
+        <v>38.19472930229169</v>
       </c>
     </row>
     <row r="195">
@@ -3163,7 +3115,7 @@
         <v>38.24560579898996</v>
       </c>
       <c r="D195" t="n">
-        <v>38.17559176544342</v>
+        <v>38.17298811175593</v>
       </c>
     </row>
     <row r="196">
@@ -3177,7 +3129,7 @@
         <v>38.14156741114098</v>
       </c>
       <c r="D196" t="n">
-        <v>38.16634831858994</v>
+        <v>38.16661426096068</v>
       </c>
     </row>
     <row r="197">
@@ -3191,7 +3143,7 @@
         <v>38.25152200911963</v>
       </c>
       <c r="D197" t="n">
-        <v>38.17487476096604</v>
+        <v>38.17471940811823</v>
       </c>
     </row>
     <row r="198">
@@ -3205,7 +3157,7 @@
         <v>38.27580604944538</v>
       </c>
       <c r="D198" t="n">
-        <v>38.19135896136757</v>
+        <v>38.1901464811151</v>
       </c>
     </row>
     <row r="199">
@@ -3219,7 +3171,7 @@
         <v>38.24601512730975</v>
       </c>
       <c r="D199" t="n">
-        <v>38.20832070553706</v>
+        <v>38.20644672022203</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3185,7 @@
         <v>38.2139183885354</v>
       </c>
       <c r="D200" t="n">
-        <v>38.2257611035421</v>
+        <v>38.22199671257274</v>
       </c>
     </row>
     <row r="201">
@@ -3247,7 +3199,7 @@
         <v>38.26633282625772</v>
       </c>
       <c r="D201" t="n">
-        <v>38.24669810055051</v>
+        <v>38.23776316783053</v>
       </c>
     </row>
     <row r="202">
@@ -3261,7 +3213,7 @@
         <v>38.29098211554098</v>
       </c>
       <c r="D202" t="n">
-        <v>38.26874853906775</v>
+        <v>38.25198457809763</v>
       </c>
     </row>
     <row r="203">
@@ -3275,7 +3227,7 @@
         <v>38.29550071481131</v>
       </c>
       <c r="D203" t="n">
-        <v>38.28162163405412</v>
+        <v>38.25825411801676</v>
       </c>
     </row>
     <row r="204">
@@ -3289,7 +3241,7 @@
         <v>38.2701108407521</v>
       </c>
       <c r="D204" t="n">
-        <v>38.27434057224875</v>
+        <v>38.2499065649516</v>
       </c>
     </row>
     <row r="205">
@@ -3303,7 +3255,7 @@
         <v>38.26189431251552</v>
       </c>
       <c r="D205" t="n">
-        <v>38.24579302221043</v>
+        <v>38.22686355102656</v>
       </c>
     </row>
     <row r="206">
@@ -3313,12 +3265,8 @@
       <c r="B206" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="C206" t="n">
-        <v>38.32195115358292</v>
-      </c>
-      <c r="D206" t="n">
-        <v>38.20817427263785</v>
-      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -3331,7 +3279,7 @@
         <v>38.16457819855617</v>
       </c>
       <c r="D207" t="n">
-        <v>38.17925532282821</v>
+        <v>38.17630246571715</v>
       </c>
     </row>
     <row r="208">
@@ -3345,7 +3293,7 @@
         <v>38.10360276138279</v>
       </c>
       <c r="D208" t="n">
-        <v>38.17001187597473</v>
+        <v>38.1699286149219</v>
       </c>
     </row>
     <row r="209">
@@ -3359,7 +3307,7 @@
         <v>38.2096726177727</v>
       </c>
       <c r="D209" t="n">
-        <v>38.17853831835083</v>
+        <v>38.17803376207945</v>
       </c>
     </row>
     <row r="210">
@@ -3373,7 +3321,7 @@
         <v>38.18468345865749</v>
       </c>
       <c r="D210" t="n">
-        <v>38.19502251875236</v>
+        <v>38.19346083507632</v>
       </c>
     </row>
     <row r="211">
@@ -3387,7 +3335,7 @@
         <v>38.20517213600029</v>
       </c>
       <c r="D211" t="n">
-        <v>38.21198426292185</v>
+        <v>38.20976107418326</v>
       </c>
     </row>
     <row r="212">
@@ -3401,7 +3349,7 @@
         <v>38.24323681319601</v>
       </c>
       <c r="D212" t="n">
-        <v>38.22942466092689</v>
+        <v>38.22531106653396</v>
       </c>
     </row>
     <row r="213">
@@ -3415,7 +3363,7 @@
         <v>38.16968845253574</v>
       </c>
       <c r="D213" t="n">
-        <v>38.2503616579353</v>
+        <v>38.24107752179175</v>
       </c>
     </row>
     <row r="214">
@@ -3429,7 +3377,7 @@
         <v>38.25881017665466</v>
       </c>
       <c r="D214" t="n">
-        <v>38.27241209645254</v>
+        <v>38.25529893205884</v>
       </c>
     </row>
     <row r="215">
@@ -3453,7 +3401,7 @@
         <v>38.26150822927323</v>
       </c>
       <c r="D216" t="n">
-        <v>38.27800412963354</v>
+        <v>38.25322091891282</v>
       </c>
     </row>
     <row r="217">
@@ -3467,7 +3415,7 @@
         <v>38.23388538050395</v>
       </c>
       <c r="D217" t="n">
-        <v>38.24945657959522</v>
+        <v>38.23017790498779</v>
       </c>
     </row>
     <row r="218">
@@ -3481,7 +3429,7 @@
         <v>38.13462666155654</v>
       </c>
       <c r="D218" t="n">
-        <v>38.21183783002264</v>
+        <v>38.20135801021413</v>
       </c>
     </row>
     <row r="219">
@@ -3495,7 +3443,7 @@
         <v>38.11864941033607</v>
       </c>
       <c r="D219" t="n">
-        <v>38.182918880213</v>
+        <v>38.17961681967837</v>
       </c>
     </row>
     <row r="220">
@@ -3509,7 +3457,7 @@
         <v>38.24406523643411</v>
       </c>
       <c r="D220" t="n">
-        <v>38.17367543335952</v>
+        <v>38.17324296888312</v>
       </c>
     </row>
     <row r="221">
@@ -3523,7 +3471,7 @@
         <v>38.1911885669581</v>
       </c>
       <c r="D221" t="n">
-        <v>38.18220187573562</v>
+        <v>38.18134811604067</v>
       </c>
     </row>
     <row r="222">
@@ -3537,7 +3485,7 @@
         <v>38.23113687371264</v>
       </c>
       <c r="D222" t="n">
-        <v>38.19868607613715</v>
+        <v>38.19677518903755</v>
       </c>
     </row>
     <row r="223">
@@ -3551,7 +3499,7 @@
         <v>38.23289043696641</v>
       </c>
       <c r="D223" t="n">
-        <v>38.21564782030664</v>
+        <v>38.21307542814448</v>
       </c>
     </row>
     <row r="224">
@@ -3565,7 +3513,7 @@
         <v>38.23850326464031</v>
       </c>
       <c r="D224" t="n">
-        <v>38.23308821831167</v>
+        <v>38.22862542049518</v>
       </c>
     </row>
     <row r="225">
@@ -3579,7 +3527,7 @@
         <v>38.18599472694483</v>
       </c>
       <c r="D225" t="n">
-        <v>38.25402521532009</v>
+        <v>38.24439187575297</v>
       </c>
     </row>
     <row r="226">
@@ -3589,12 +3537,8 @@
       <c r="B226" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="C226" t="n">
-        <v>38.34380742222647</v>
-      </c>
-      <c r="D226" t="n">
-        <v>38.27607565383732</v>
-      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -3607,7 +3551,7 @@
         <v>38.29078888671262</v>
       </c>
       <c r="D227" t="n">
-        <v>38.2889487488237</v>
+        <v>38.2648828259392</v>
       </c>
     </row>
     <row r="228">
@@ -3617,12 +3561,8 @@
       <c r="B228" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="C228" t="n">
-        <v>38.31436715605045</v>
-      </c>
-      <c r="D228" t="n">
-        <v>38.28166768701833</v>
-      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -3635,7 +3575,7 @@
         <v>38.28741683442684</v>
       </c>
       <c r="D229" t="n">
-        <v>38.25312013698001</v>
+        <v>38.23349225894901</v>
       </c>
     </row>
     <row r="230">
@@ -3645,12 +3585,8 @@
       <c r="B230" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="C230" t="n">
-        <v>38.37455114155031</v>
-      </c>
-      <c r="D230" t="n">
-        <v>38.21550138740743</v>
-      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -3663,7 +3599,7 @@
         <v>38.09907071815977</v>
       </c>
       <c r="D231" t="n">
-        <v>38.18658243759779</v>
+        <v>38.18293117363959</v>
       </c>
     </row>
     <row r="232">
@@ -3677,7 +3613,7 @@
         <v>38.15051851835145</v>
       </c>
       <c r="D232" t="n">
-        <v>38.17733899074431</v>
+        <v>38.17655732284435</v>
       </c>
     </row>
     <row r="233">
@@ -3691,7 +3627,7 @@
         <v>38.10853126403353</v>
       </c>
       <c r="D233" t="n">
-        <v>38.18586543312041</v>
+        <v>38.1846624700019</v>
       </c>
     </row>
     <row r="234">
@@ -3705,7 +3641,7 @@
         <v>38.2460703344017</v>
       </c>
       <c r="D234" t="n">
-        <v>38.20234963352193</v>
+        <v>38.20008954299876</v>
       </c>
     </row>
     <row r="235">
@@ -3719,7 +3655,7 @@
         <v>38.17653957212932</v>
       </c>
       <c r="D235" t="n">
-        <v>38.21931137769143</v>
+        <v>38.2163897821057</v>
       </c>
     </row>
   </sheetData>
